--- a/Jogos_do_Dia/2024-04-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1699,13 +1699,13 @@
         <v>5.5</v>
       </c>
       <c r="J8">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="K8">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="L8">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="M8">
         <v>1.33</v>
@@ -1726,10 +1726,10 @@
         <v>4.2</v>
       </c>
       <c r="S8">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="T8">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U8">
         <v>1.75</v>
@@ -2643,10 +2643,10 @@
         <v>3.25</v>
       </c>
       <c r="S15">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T15">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U15">
         <v>1.8</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K18">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L18">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -3027,13 +3027,13 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="S18">
         <v>1.8</v>
@@ -3271,10 +3271,10 @@
         <v>5.5</v>
       </c>
       <c r="J20">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="K20">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L20">
         <v>4.5</v>
@@ -3298,7 +3298,7 @@
         <v>3.1</v>
       </c>
       <c r="S20">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T20">
         <v>1.7</v>
@@ -3524,22 +3524,22 @@
         <v>119</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="H22">
         <v>1.95</v>
       </c>
       <c r="I22">
+        <v>2.88</v>
+      </c>
+      <c r="J22">
+        <v>2.6</v>
+      </c>
+      <c r="K22">
         <v>3.1</v>
       </c>
-      <c r="J22">
-        <v>3.1</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
       <c r="L22">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="M22">
         <v>1.5</v>
@@ -3560,10 +3560,10 @@
         <v>2.8</v>
       </c>
       <c r="S22">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="T22">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="U22">
         <v>2.05</v>
@@ -4057,13 +4057,13 @@
         <v>4.75</v>
       </c>
       <c r="J26">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="K26">
         <v>3.2</v>
       </c>
       <c r="L26">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="M26">
         <v>1.52</v>
@@ -4084,7 +4084,7 @@
         <v>2.38</v>
       </c>
       <c r="S26">
-        <v>2.41</v>
+        <v>2.45</v>
       </c>
       <c r="T26">
         <v>1.5</v>
@@ -4093,7 +4093,7 @@
         <v>2.15</v>
       </c>
       <c r="V26">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="W26">
         <v>1.2</v>

--- a/Jogos_do_Dia/2024-04-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -160,18 +160,18 @@
     <t>Italy Serie A</t>
   </si>
   <si>
+    <t>Poland Ekstraklasa</t>
+  </si>
+  <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
+    <t>Turkey Süper Lig</t>
+  </si>
+  <si>
     <t>Portugal LigaPro</t>
   </si>
   <si>
-    <t>Turkey Süper Lig</t>
-  </si>
-  <si>
-    <t>Poland Ekstraklasa</t>
-  </si>
-  <si>
     <t>Denmark Superliga</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
+    <t>England Championship</t>
+  </si>
+  <si>
     <t>Spain La Liga</t>
   </si>
   <si>
-    <t>England Championship</t>
-  </si>
-  <si>
     <t>Portugal Liga NOS</t>
   </si>
   <si>
@@ -256,16 +256,19 @@
     <t>Roma</t>
   </si>
   <si>
+    <t>Warta Poznań</t>
+  </si>
+  <si>
     <t>Elfsborg</t>
   </si>
   <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
     <t>CD Nacional</t>
   </si>
   <si>
-    <t>Sivasspor</t>
-  </si>
-  <si>
-    <t>Warta Poznań</t>
+    <t>Nordsjælland</t>
   </si>
   <si>
     <t>El Daklyeh FC</t>
@@ -274,9 +277,6 @@
     <t>Al Ittihad</t>
   </si>
   <si>
-    <t>Nordsjælland</t>
-  </si>
-  <si>
     <t>Örebro</t>
   </si>
   <si>
@@ -292,21 +292,21 @@
     <t>FC Cartagena</t>
   </si>
   <si>
+    <t>AC Milan</t>
+  </si>
+  <si>
     <t>Derry City</t>
   </si>
   <si>
-    <t>AC Milan</t>
-  </si>
-  <si>
     <t>Shelbourne</t>
   </si>
   <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
     <t>Sevilla FC</t>
   </si>
   <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
     <t>Farense</t>
   </si>
   <si>
@@ -331,16 +331,19 @@
     <t>Bologna</t>
   </si>
   <si>
+    <t>Stal Mielec</t>
+  </si>
+  <si>
     <t>Kalmar</t>
   </si>
   <si>
+    <t>Fenerbahçe</t>
+  </si>
+  <si>
     <t>Benfica II</t>
   </si>
   <si>
-    <t>Fenerbahçe</t>
-  </si>
-  <si>
-    <t>Stal Mielec</t>
+    <t>AGF</t>
   </si>
   <si>
     <t>Coca-Cola</t>
@@ -349,9 +352,6 @@
     <t>Ismaily SC</t>
   </si>
   <si>
-    <t>AGF</t>
-  </si>
-  <si>
     <t>Varberg</t>
   </si>
   <si>
@@ -367,19 +367,19 @@
     <t>Real Oviedo</t>
   </si>
   <si>
+    <t>Inter Milan</t>
+  </si>
+  <si>
     <t>St Patrick's Athl.</t>
   </si>
   <si>
-    <t>Inter Milan</t>
-  </si>
-  <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
+    <t>Leeds United</t>
+  </si>
+  <si>
     <t>RCD Mallorca</t>
-  </si>
-  <si>
-    <t>Leeds United</t>
   </si>
   <si>
     <t>Benfica</t>
@@ -904,22 +904,22 @@
         <v>99</v>
       </c>
       <c r="G2">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="H2">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="I2">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="K2">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L2">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M2">
         <v>1.48</v>
@@ -940,25 +940,25 @@
         <v>2.8</v>
       </c>
       <c r="S2">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T2">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="W2">
         <v>1.25</v>
       </c>
       <c r="X2">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Y2">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Z2">
         <v>1.43</v>
@@ -1044,13 +1044,13 @@
         <v>3.49</v>
       </c>
       <c r="J3">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="K3">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L3">
-        <v>2.75</v>
+        <v>2.99</v>
       </c>
       <c r="M3">
         <v>1.34</v>
@@ -1071,10 +1071,10 @@
         <v>3.64</v>
       </c>
       <c r="S3">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="T3">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U3">
         <v>1.61</v>
@@ -1107,43 +1107,43 @@
         <v>2.78</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>8.15</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1306,13 +1306,13 @@
         <v>3.5</v>
       </c>
       <c r="J5">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="K5">
         <v>3.1</v>
       </c>
       <c r="L5">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="M5">
         <v>1.44</v>
@@ -1333,10 +1333,10 @@
         <v>3</v>
       </c>
       <c r="S5">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="T5">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="U5">
         <v>1.85</v>
@@ -1437,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="K6">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L6">
-        <v>3.1</v>
+        <v>3.34</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T6">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1568,13 +1568,13 @@
         <v>3.75</v>
       </c>
       <c r="J7">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="K7">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
         <v>1.53</v>
@@ -1595,7 +1595,7 @@
         <v>2.75</v>
       </c>
       <c r="S7">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="T7">
         <v>1.53</v>
@@ -1681,7 +1681,7 @@
         <v>66</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>80</v>
@@ -1690,115 +1690,115 @@
         <v>105</v>
       </c>
       <c r="G8">
-        <v>2.1</v>
+        <v>2.85</v>
       </c>
       <c r="H8">
-        <v>2.38</v>
+        <v>1.85</v>
       </c>
       <c r="I8">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="J8">
+        <v>2.15</v>
+      </c>
+      <c r="K8">
+        <v>3.1</v>
+      </c>
+      <c r="L8">
+        <v>3.5</v>
+      </c>
+      <c r="M8">
+        <v>1.6</v>
+      </c>
+      <c r="N8">
+        <v>2.2</v>
+      </c>
+      <c r="O8">
+        <v>1.12</v>
+      </c>
+      <c r="P8">
+        <v>6.8</v>
+      </c>
+      <c r="Q8">
         <v>1.53</v>
       </c>
-      <c r="K8">
-        <v>4.05</v>
-      </c>
-      <c r="L8">
-        <v>4.7</v>
-      </c>
-      <c r="M8">
-        <v>1.33</v>
-      </c>
-      <c r="N8">
-        <v>3.25</v>
-      </c>
-      <c r="O8">
-        <v>1.04</v>
-      </c>
-      <c r="P8">
-        <v>15</v>
-      </c>
-      <c r="Q8">
-        <v>1.23</v>
-      </c>
       <c r="R8">
-        <v>4.2</v>
+        <v>2.37</v>
       </c>
       <c r="S8">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="T8">
-        <v>2.1</v>
+        <v>1.43</v>
       </c>
       <c r="U8">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="W8">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="X8">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="Y8">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="Z8">
         <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AB8">
-        <v>1.96</v>
+        <v>1.18</v>
       </c>
       <c r="AC8">
-        <v>1.35</v>
+        <v>1.06</v>
       </c>
       <c r="AD8">
-        <v>3.31</v>
+        <v>2.24</v>
       </c>
       <c r="AE8">
+        <v>1.64</v>
+      </c>
+      <c r="AF8">
+        <v>8</v>
+      </c>
+      <c r="AG8">
+        <v>2.77</v>
+      </c>
+      <c r="AH8">
+        <v>1.34</v>
+      </c>
+      <c r="AI8">
+        <v>2.85</v>
+      </c>
+      <c r="AJ8">
+        <v>1.62</v>
+      </c>
+      <c r="AK8">
+        <v>2.08</v>
+      </c>
+      <c r="AL8">
+        <v>1.92</v>
+      </c>
+      <c r="AM8">
+        <v>1.8</v>
+      </c>
+      <c r="AN8">
+        <v>2.7</v>
+      </c>
+      <c r="AO8">
         <v>1.37</v>
       </c>
-      <c r="AF8">
-        <v>9.5</v>
-      </c>
-      <c r="AG8">
-        <v>3.69</v>
-      </c>
-      <c r="AH8">
-        <v>1.22</v>
-      </c>
-      <c r="AI8">
-        <v>4</v>
-      </c>
-      <c r="AJ8">
-        <v>1.42</v>
-      </c>
-      <c r="AK8">
-        <v>2.75</v>
-      </c>
-      <c r="AL8">
-        <v>1.74</v>
-      </c>
-      <c r="AM8">
-        <v>2.02</v>
-      </c>
-      <c r="AN8">
-        <v>1.9</v>
-      </c>
-      <c r="AO8">
-        <v>1.9</v>
-      </c>
       <c r="AP8">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AQ8">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1812,7 +1812,7 @@
         <v>66</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>81</v>
@@ -1821,115 +1821,115 @@
         <v>106</v>
       </c>
       <c r="G9">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H9">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I9">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="J9">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="K9">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L9">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="M9">
         <v>1.33</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O9">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q9">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="R9">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="S9">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="T9">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="U9">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V9">
         <v>2</v>
       </c>
       <c r="W9">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="X9">
         <v>1.22</v>
       </c>
       <c r="Y9">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="Z9">
-        <v>2.36</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>1.76</v>
+        <v>1.96</v>
       </c>
       <c r="AC9">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="AD9">
-        <v>3.24</v>
+        <v>3.31</v>
       </c>
       <c r="AE9">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="AF9">
-        <v>9.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="AG9">
-        <v>2.64</v>
+        <v>3.69</v>
       </c>
       <c r="AH9">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AI9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ9">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AK9">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="AL9">
-        <v>1.34</v>
+        <v>1.74</v>
       </c>
       <c r="AM9">
+        <v>2.02</v>
+      </c>
+      <c r="AN9">
+        <v>1.9</v>
+      </c>
+      <c r="AO9">
+        <v>1.9</v>
+      </c>
+      <c r="AP9">
         <v>3</v>
       </c>
-      <c r="AN9">
-        <v>1.61</v>
-      </c>
-      <c r="AO9">
-        <v>2.17</v>
-      </c>
-      <c r="AP9">
-        <v>2.03</v>
-      </c>
       <c r="AQ9">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1961,13 +1961,13 @@
         <v>1.83</v>
       </c>
       <c r="J10">
-        <v>7.2</v>
+        <v>7.25</v>
       </c>
       <c r="K10">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L10">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M10">
         <v>1.29</v>
@@ -1988,10 +1988,10 @@
         <v>4.8</v>
       </c>
       <c r="S10">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="T10">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="U10">
         <v>1.83</v>
@@ -2074,7 +2074,7 @@
         <v>66</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>83</v>
@@ -2083,120 +2083,120 @@
         <v>108</v>
       </c>
       <c r="G11">
-        <v>2.85</v>
+        <v>2.3</v>
       </c>
       <c r="H11">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="I11">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="J11">
-        <v>2.07</v>
+        <v>1.72</v>
       </c>
       <c r="K11">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="L11">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="M11">
+        <v>1.33</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>1.05</v>
+      </c>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>1.25</v>
+      </c>
+      <c r="R11">
+        <v>3.75</v>
+      </c>
+      <c r="S11">
+        <v>1.75</v>
+      </c>
+      <c r="T11">
+        <v>1.95</v>
+      </c>
+      <c r="U11">
+        <v>1.73</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>1.19</v>
+      </c>
+      <c r="X11">
+        <v>1.22</v>
+      </c>
+      <c r="Y11">
+        <v>1.78</v>
+      </c>
+      <c r="Z11">
+        <v>2.36</v>
+      </c>
+      <c r="AA11">
+        <v>1.29</v>
+      </c>
+      <c r="AB11">
+        <v>1.76</v>
+      </c>
+      <c r="AC11">
+        <v>1.48</v>
+      </c>
+      <c r="AD11">
+        <v>3.24</v>
+      </c>
+      <c r="AE11">
         <v>1.6</v>
       </c>
-      <c r="N11">
-        <v>2.2</v>
-      </c>
-      <c r="O11">
-        <v>1.12</v>
-      </c>
-      <c r="P11">
-        <v>6.8</v>
-      </c>
-      <c r="Q11">
-        <v>1.52</v>
-      </c>
-      <c r="R11">
-        <v>2.37</v>
-      </c>
-      <c r="S11">
-        <v>2.4</v>
-      </c>
-      <c r="T11">
-        <v>1.5</v>
-      </c>
-      <c r="U11">
-        <v>2.25</v>
-      </c>
-      <c r="V11">
-        <v>1.58</v>
-      </c>
-      <c r="W11">
-        <v>1.28</v>
-      </c>
-      <c r="X11">
-        <v>1.38</v>
-      </c>
-      <c r="Y11">
+      <c r="AF11">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG11">
+        <v>2.64</v>
+      </c>
+      <c r="AH11">
+        <v>1.13</v>
+      </c>
+      <c r="AI11">
+        <v>5</v>
+      </c>
+      <c r="AJ11">
+        <v>1.25</v>
+      </c>
+      <c r="AK11">
+        <v>3.6</v>
+      </c>
+      <c r="AL11">
+        <v>1.34</v>
+      </c>
+      <c r="AM11">
+        <v>3</v>
+      </c>
+      <c r="AN11">
+        <v>1.61</v>
+      </c>
+      <c r="AO11">
+        <v>2.17</v>
+      </c>
+      <c r="AP11">
+        <v>2.03</v>
+      </c>
+      <c r="AQ11">
         <v>1.7</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AA11">
-        <v>0.86</v>
-      </c>
-      <c r="AB11">
-        <v>1.18</v>
-      </c>
-      <c r="AC11">
-        <v>1.06</v>
-      </c>
-      <c r="AD11">
-        <v>2.24</v>
-      </c>
-      <c r="AE11">
-        <v>1.64</v>
-      </c>
-      <c r="AF11">
-        <v>8</v>
-      </c>
-      <c r="AG11">
-        <v>2.77</v>
-      </c>
-      <c r="AH11">
-        <v>1.34</v>
-      </c>
-      <c r="AI11">
-        <v>2.85</v>
-      </c>
-      <c r="AJ11">
-        <v>1.62</v>
-      </c>
-      <c r="AK11">
-        <v>2.08</v>
-      </c>
-      <c r="AL11">
-        <v>1.92</v>
-      </c>
-      <c r="AM11">
-        <v>1.8</v>
-      </c>
-      <c r="AN11">
-        <v>2.7</v>
-      </c>
-      <c r="AO11">
-        <v>1.37</v>
-      </c>
-      <c r="AP11">
-        <v>3.75</v>
-      </c>
-      <c r="AQ11">
-        <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2">
         <v>45404</v>
@@ -2205,7 +2205,7 @@
         <v>66</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
         <v>84</v>
@@ -2214,115 +2214,115 @@
         <v>109</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="H12">
+        <v>2.25</v>
+      </c>
+      <c r="I12">
+        <v>5.5</v>
+      </c>
+      <c r="J12">
+        <v>1.65</v>
+      </c>
+      <c r="K12">
+        <v>3.9</v>
+      </c>
+      <c r="L12">
+        <v>4.75</v>
+      </c>
+      <c r="M12">
+        <v>1.36</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>1.01</v>
+      </c>
+      <c r="P12">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>1.26</v>
+      </c>
+      <c r="R12">
+        <v>3.34</v>
+      </c>
+      <c r="S12">
         <v>1.85</v>
       </c>
-      <c r="I12">
-        <v>2.62</v>
-      </c>
-      <c r="J12">
-        <v>4.25</v>
-      </c>
-      <c r="K12">
-        <v>2.9</v>
-      </c>
-      <c r="L12">
+      <c r="T12">
         <v>1.85</v>
       </c>
-      <c r="M12">
+      <c r="U12">
+        <v>1.91</v>
+      </c>
+      <c r="V12">
+        <v>1.91</v>
+      </c>
+      <c r="W12">
+        <v>1.17</v>
+      </c>
+      <c r="X12">
+        <v>1.26</v>
+      </c>
+      <c r="Y12">
+        <v>2.22</v>
+      </c>
+      <c r="Z12">
+        <v>2.08</v>
+      </c>
+      <c r="AA12">
+        <v>1.58</v>
+      </c>
+      <c r="AB12">
+        <v>1.75</v>
+      </c>
+      <c r="AC12">
+        <v>1.18</v>
+      </c>
+      <c r="AD12">
+        <v>2.93</v>
+      </c>
+      <c r="AE12">
+        <v>1.45</v>
+      </c>
+      <c r="AF12">
+        <v>9</v>
+      </c>
+      <c r="AG12">
+        <v>3.32</v>
+      </c>
+      <c r="AH12">
+        <v>1.22</v>
+      </c>
+      <c r="AI12">
+        <v>3.75</v>
+      </c>
+      <c r="AJ12">
+        <v>1.78</v>
+      </c>
+      <c r="AK12">
+        <v>2.02</v>
+      </c>
+      <c r="AL12">
+        <v>1.78</v>
+      </c>
+      <c r="AM12">
+        <v>2.02</v>
+      </c>
+      <c r="AN12">
+        <v>2.18</v>
+      </c>
+      <c r="AO12">
         <v>1.6</v>
       </c>
-      <c r="N12">
-        <v>2.2</v>
-      </c>
-      <c r="O12">
-        <v>1.11</v>
-      </c>
-      <c r="P12">
-        <v>6</v>
-      </c>
-      <c r="Q12">
-        <v>1.48</v>
-      </c>
-      <c r="R12">
-        <v>2.37</v>
-      </c>
-      <c r="S12">
-        <v>2.08</v>
-      </c>
-      <c r="T12">
-        <v>1.25</v>
-      </c>
-      <c r="U12">
-        <v>2.2</v>
-      </c>
-      <c r="V12">
-        <v>1.55</v>
-      </c>
-      <c r="W12">
-        <v>1.85</v>
-      </c>
-      <c r="X12">
-        <v>1.3</v>
-      </c>
-      <c r="Y12">
-        <v>1.18</v>
-      </c>
-      <c r="Z12">
-        <v>0.88</v>
-      </c>
-      <c r="AA12">
-        <v>1.83</v>
-      </c>
-      <c r="AB12">
-        <v>0.89</v>
-      </c>
-      <c r="AC12">
-        <v>1.44</v>
-      </c>
-      <c r="AD12">
-        <v>2.33</v>
-      </c>
-      <c r="AE12">
-        <v>2.91</v>
-      </c>
-      <c r="AF12">
-        <v>8.6</v>
-      </c>
-      <c r="AG12">
-        <v>1.52</v>
-      </c>
-      <c r="AH12">
-        <v>1.36</v>
-      </c>
-      <c r="AI12">
-        <v>2.79</v>
-      </c>
-      <c r="AJ12">
-        <v>1.66</v>
-      </c>
-      <c r="AK12">
-        <v>2.04</v>
-      </c>
-      <c r="AL12">
-        <v>2.12</v>
-      </c>
-      <c r="AM12">
-        <v>1.61</v>
-      </c>
-      <c r="AN12">
-        <v>2.84</v>
-      </c>
-      <c r="AO12">
+      <c r="AP12">
+        <v>2.88</v>
+      </c>
+      <c r="AQ12">
         <v>1.35</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2345,120 +2345,120 @@
         <v>110</v>
       </c>
       <c r="G13">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="I13">
-        <v>3.55</v>
+        <v>2.63</v>
       </c>
       <c r="J13">
-        <v>2.55</v>
+        <v>4.33</v>
       </c>
       <c r="K13">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="M13">
+        <v>1.6</v>
+      </c>
+      <c r="N13">
+        <v>2.2</v>
+      </c>
+      <c r="O13">
+        <v>1.11</v>
+      </c>
+      <c r="P13">
+        <v>6</v>
+      </c>
+      <c r="Q13">
         <v>1.5</v>
       </c>
-      <c r="N13">
-        <v>2.4</v>
-      </c>
-      <c r="O13">
-        <v>1.08</v>
-      </c>
-      <c r="P13">
-        <v>7</v>
-      </c>
-      <c r="Q13">
-        <v>1.42</v>
-      </c>
       <c r="R13">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="S13">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="T13">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="U13">
-        <v>1.85</v>
+        <v>2.38</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="W13">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="X13">
         <v>1.3</v>
       </c>
       <c r="Y13">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="Z13">
-        <v>1.75</v>
+        <v>0.88</v>
       </c>
       <c r="AA13">
-        <v>0.5</v>
+        <v>1.83</v>
       </c>
       <c r="AB13">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AC13">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="AD13">
-        <v>2.95</v>
+        <v>2.33</v>
       </c>
       <c r="AE13">
-        <v>1.86</v>
+        <v>2.88</v>
       </c>
       <c r="AF13">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG13">
-        <v>2.17</v>
+        <v>1.53</v>
       </c>
       <c r="AH13">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AI13">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="AJ13">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AK13">
-        <v>2.28</v>
+        <v>2.09</v>
       </c>
       <c r="AL13">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="AM13">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="AN13">
-        <v>2.51</v>
+        <v>2.78</v>
       </c>
       <c r="AO13">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AP13">
-        <v>3.42</v>
+        <v>3.68</v>
       </c>
       <c r="AQ13">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2">
         <v>45404</v>
@@ -2467,7 +2467,7 @@
         <v>66</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
         <v>86</v>
@@ -2476,115 +2476,115 @@
         <v>111</v>
       </c>
       <c r="G14">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="H14">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="J14">
-        <v>1.77</v>
+        <v>2.5</v>
       </c>
       <c r="K14">
-        <v>3.85</v>
+        <v>2.8</v>
       </c>
       <c r="L14">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="O14">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="P14">
-        <v>9.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="Q14">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="R14">
-        <v>3.34</v>
+        <v>2.75</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="T14">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="U14">
         <v>1.91</v>
       </c>
       <c r="V14">
+        <v>1.8</v>
+      </c>
+      <c r="W14">
+        <v>1.38</v>
+      </c>
+      <c r="X14">
+        <v>1.3</v>
+      </c>
+      <c r="Y14">
+        <v>1.5</v>
+      </c>
+      <c r="Z14">
+        <v>1.75</v>
+      </c>
+      <c r="AA14">
+        <v>0.5</v>
+      </c>
+      <c r="AB14">
+        <v>1.4</v>
+      </c>
+      <c r="AC14">
+        <v>1.55</v>
+      </c>
+      <c r="AD14">
+        <v>2.95</v>
+      </c>
+      <c r="AE14">
+        <v>1.86</v>
+      </c>
+      <c r="AF14">
+        <v>8.4</v>
+      </c>
+      <c r="AG14">
+        <v>2.17</v>
+      </c>
+      <c r="AH14">
+        <v>1.28</v>
+      </c>
+      <c r="AI14">
+        <v>3.2</v>
+      </c>
+      <c r="AJ14">
+        <v>1.53</v>
+      </c>
+      <c r="AK14">
+        <v>2.28</v>
+      </c>
+      <c r="AL14">
         <v>1.91</v>
       </c>
-      <c r="W14">
-        <v>1.17</v>
-      </c>
-      <c r="X14">
-        <v>1.26</v>
-      </c>
-      <c r="Y14">
-        <v>2.22</v>
-      </c>
-      <c r="Z14">
-        <v>2.08</v>
-      </c>
-      <c r="AA14">
-        <v>1.58</v>
-      </c>
-      <c r="AB14">
-        <v>1.75</v>
-      </c>
-      <c r="AC14">
-        <v>1.18</v>
-      </c>
-      <c r="AD14">
-        <v>2.93</v>
-      </c>
-      <c r="AE14">
-        <v>1.45</v>
-      </c>
-      <c r="AF14">
-        <v>9</v>
-      </c>
-      <c r="AG14">
-        <v>3.32</v>
-      </c>
-      <c r="AH14">
-        <v>1.22</v>
-      </c>
-      <c r="AI14">
-        <v>3.75</v>
-      </c>
-      <c r="AJ14">
-        <v>1.78</v>
-      </c>
-      <c r="AK14">
-        <v>2.02</v>
-      </c>
-      <c r="AL14">
-        <v>1.78</v>
-      </c>
       <c r="AM14">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="AN14">
-        <v>2.18</v>
+        <v>2.51</v>
       </c>
       <c r="AO14">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AP14">
-        <v>2.88</v>
+        <v>3.42</v>
       </c>
       <c r="AQ14">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2616,13 +2616,13 @@
         <v>3.5</v>
       </c>
       <c r="J15">
-        <v>2.41</v>
+        <v>2.35</v>
       </c>
       <c r="K15">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L15">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="M15">
         <v>1.39</v>
@@ -2643,10 +2643,10 @@
         <v>3.25</v>
       </c>
       <c r="S15">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="U15">
         <v>1.8</v>
@@ -3000,61 +3000,61 @@
         <v>115</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J18">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K18">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
         <v>2.45</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P18">
         <v>8.65</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R18">
         <v>3.68</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T18">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="Z18">
         <v>2.6</v>
@@ -3140,13 +3140,13 @@
         <v>3.25</v>
       </c>
       <c r="J19">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="K19">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="M19">
         <v>1.57</v>
@@ -3161,10 +3161,10 @@
         <v>6.45</v>
       </c>
       <c r="Q19">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R19">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="S19">
         <v>2.5</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2">
         <v>45404</v>
@@ -3253,7 +3253,7 @@
         <v>70</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
         <v>92</v>
@@ -3262,120 +3262,120 @@
         <v>117</v>
       </c>
       <c r="G20">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="I20">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="J20">
-        <v>1.74</v>
+        <v>2.8</v>
       </c>
       <c r="K20">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="L20">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="M20">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="N20">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="O20">
         <v>1.06</v>
       </c>
       <c r="P20">
-        <v>8.5</v>
+        <v>15.5</v>
       </c>
       <c r="Q20">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="R20">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T20">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="U20">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="V20">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="W20">
-        <v>1.18</v>
+        <v>1.77</v>
       </c>
       <c r="X20">
         <v>1.22</v>
       </c>
       <c r="Y20">
-        <v>2</v>
+        <v>1.28</v>
       </c>
       <c r="Z20">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>2.73</v>
       </c>
       <c r="AB20">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="AC20">
-        <v>1.05</v>
+        <v>1.47</v>
       </c>
       <c r="AD20">
+        <v>2.99</v>
+      </c>
+      <c r="AE20">
+        <v>2.23</v>
+      </c>
+      <c r="AF20">
+        <v>8.9</v>
+      </c>
+      <c r="AG20">
+        <v>1.9</v>
+      </c>
+      <c r="AH20">
+        <v>1.33</v>
+      </c>
+      <c r="AI20">
+        <v>3</v>
+      </c>
+      <c r="AJ20">
+        <v>1.57</v>
+      </c>
+      <c r="AK20">
+        <v>2.35</v>
+      </c>
+      <c r="AL20">
+        <v>1.93</v>
+      </c>
+      <c r="AM20">
+        <v>1.85</v>
+      </c>
+      <c r="AN20">
         <v>2.45</v>
       </c>
-      <c r="AE20">
-        <v>1.34</v>
-      </c>
-      <c r="AF20">
-        <v>10.2</v>
-      </c>
-      <c r="AG20">
-        <v>4.14</v>
-      </c>
-      <c r="AH20">
-        <v>1.24</v>
-      </c>
-      <c r="AI20">
-        <v>3.48</v>
-      </c>
-      <c r="AJ20">
-        <v>1.46</v>
-      </c>
-      <c r="AK20">
-        <v>2.52</v>
-      </c>
-      <c r="AL20">
-        <v>2.38</v>
-      </c>
-      <c r="AM20">
-        <v>1.92</v>
-      </c>
-      <c r="AN20">
-        <v>2.32</v>
-      </c>
       <c r="AO20">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="AP20">
-        <v>3.04</v>
+        <v>3.2</v>
       </c>
       <c r="AQ20">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2">
         <v>45404</v>
@@ -3384,7 +3384,7 @@
         <v>70</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
         <v>93</v>
@@ -3393,115 +3393,115 @@
         <v>118</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="H21">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I21">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="J21">
-        <v>3.2</v>
+        <v>1.67</v>
       </c>
       <c r="K21">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L21">
-        <v>2.22</v>
+        <v>4.5</v>
       </c>
       <c r="M21">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="N21">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="O21">
         <v>1.06</v>
       </c>
       <c r="P21">
-        <v>15.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q21">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="S21">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="U21">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="V21">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="W21">
-        <v>1.77</v>
+        <v>1.18</v>
       </c>
       <c r="X21">
         <v>1.22</v>
       </c>
       <c r="Y21">
-        <v>1.28</v>
+        <v>2</v>
       </c>
       <c r="Z21">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AA21">
-        <v>2.73</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="AC21">
-        <v>1.47</v>
+        <v>1.05</v>
       </c>
       <c r="AD21">
-        <v>2.99</v>
+        <v>2.45</v>
       </c>
       <c r="AE21">
-        <v>2.23</v>
+        <v>1.34</v>
       </c>
       <c r="AF21">
-        <v>8.9</v>
+        <v>10.2</v>
       </c>
       <c r="AG21">
-        <v>1.9</v>
+        <v>4.14</v>
       </c>
       <c r="AH21">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="AI21">
-        <v>3</v>
+        <v>3.48</v>
       </c>
       <c r="AJ21">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="AK21">
-        <v>2.35</v>
+        <v>2.52</v>
       </c>
       <c r="AL21">
-        <v>1.93</v>
+        <v>2.38</v>
       </c>
       <c r="AM21">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="AN21">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="AO21">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AP21">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="AQ21">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -3524,22 +3524,22 @@
         <v>119</v>
       </c>
       <c r="G22">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H22">
         <v>1.95</v>
       </c>
       <c r="I22">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J22">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="K22">
         <v>3.1</v>
       </c>
       <c r="L22">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="M22">
         <v>1.5</v>
@@ -3560,16 +3560,16 @@
         <v>2.8</v>
       </c>
       <c r="S22">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="T22">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="U22">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V22">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W22">
         <v>1.44</v>
@@ -3646,7 +3646,7 @@
         <v>71</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
         <v>95</v>
@@ -3655,115 +3655,115 @@
         <v>120</v>
       </c>
       <c r="G23">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="H23">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="J23">
-        <v>1.86</v>
+        <v>3.8</v>
       </c>
       <c r="K23">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="L23">
-        <v>4.6</v>
+        <v>1.85</v>
       </c>
       <c r="M23">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="N23">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="O23">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="P23">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="Q23">
+        <v>1.26</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <v>1.85</v>
+      </c>
+      <c r="T23">
+        <v>1.83</v>
+      </c>
+      <c r="U23">
+        <v>1.67</v>
+      </c>
+      <c r="V23">
+        <v>2.1</v>
+      </c>
+      <c r="W23">
+        <v>2.01</v>
+      </c>
+      <c r="X23">
+        <v>1.26</v>
+      </c>
+      <c r="Y23">
+        <v>1.23</v>
+      </c>
+      <c r="Z23">
+        <v>1.48</v>
+      </c>
+      <c r="AA23">
+        <v>1.62</v>
+      </c>
+      <c r="AB23">
         <v>1.53</v>
       </c>
-      <c r="R23">
-        <v>2.52</v>
-      </c>
-      <c r="S23">
-        <v>2.45</v>
-      </c>
-      <c r="T23">
-        <v>1.48</v>
-      </c>
-      <c r="U23">
-        <v>2.2</v>
-      </c>
-      <c r="V23">
-        <v>1.62</v>
-      </c>
-      <c r="W23">
-        <v>1.23</v>
-      </c>
-      <c r="X23">
-        <v>1.35</v>
-      </c>
-      <c r="Y23">
+      <c r="AC23">
+        <v>1.41</v>
+      </c>
+      <c r="AD23">
+        <v>2.94</v>
+      </c>
+      <c r="AE23">
+        <v>2.56</v>
+      </c>
+      <c r="AF23">
+        <v>7.5</v>
+      </c>
+      <c r="AG23">
         <v>1.8</v>
       </c>
-      <c r="Z23">
-        <v>1.13</v>
-      </c>
-      <c r="AA23">
-        <v>0.6</v>
-      </c>
-      <c r="AB23">
-        <v>1.7</v>
-      </c>
-      <c r="AC23">
+      <c r="AH23">
         <v>1.16</v>
       </c>
-      <c r="AD23">
-        <v>2.86</v>
-      </c>
-      <c r="AE23">
-        <v>1.48</v>
-      </c>
-      <c r="AF23">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG23">
-        <v>3.3</v>
-      </c>
-      <c r="AH23">
-        <v>1.4</v>
-      </c>
       <c r="AI23">
-        <v>2.7</v>
+        <v>4.51</v>
       </c>
       <c r="AJ23">
-        <v>1.68</v>
+        <v>1.34</v>
       </c>
       <c r="AK23">
-        <v>2.13</v>
+        <v>3</v>
       </c>
       <c r="AL23">
-        <v>2.11</v>
+        <v>1.64</v>
       </c>
       <c r="AM23">
-        <v>1.69</v>
+        <v>2.26</v>
       </c>
       <c r="AN23">
-        <v>2.62</v>
+        <v>2.01</v>
       </c>
       <c r="AO23">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="AP23">
-        <v>3.6</v>
+        <v>2.58</v>
       </c>
       <c r="AQ23">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -3777,7 +3777,7 @@
         <v>71</v>
       </c>
       <c r="D24">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
         <v>96</v>
@@ -3786,115 +3786,115 @@
         <v>121</v>
       </c>
       <c r="G24">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="H24">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="I24">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="J24">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="K24">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="L24">
-        <v>1.79</v>
+        <v>4.4</v>
       </c>
       <c r="M24">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="N24">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="O24">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="P24">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="Q24">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
       <c r="R24">
-        <v>4</v>
+        <v>2.52</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>2.37</v>
       </c>
       <c r="T24">
-        <v>1.96</v>
+        <v>1.53</v>
       </c>
       <c r="U24">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="V24">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="W24">
-        <v>2.01</v>
+        <v>1.23</v>
       </c>
       <c r="X24">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="Y24">
-        <v>1.23</v>
+        <v>1.8</v>
       </c>
       <c r="Z24">
+        <v>1.13</v>
+      </c>
+      <c r="AA24">
+        <v>0.6</v>
+      </c>
+      <c r="AB24">
+        <v>1.7</v>
+      </c>
+      <c r="AC24">
+        <v>1.16</v>
+      </c>
+      <c r="AD24">
+        <v>2.86</v>
+      </c>
+      <c r="AE24">
         <v>1.48</v>
       </c>
-      <c r="AA24">
-        <v>1.62</v>
-      </c>
-      <c r="AB24">
-        <v>1.53</v>
-      </c>
-      <c r="AC24">
-        <v>1.41</v>
-      </c>
-      <c r="AD24">
-        <v>2.94</v>
-      </c>
-      <c r="AE24">
-        <v>2.56</v>
-      </c>
       <c r="AF24">
-        <v>7.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG24">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="AH24">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="AI24">
-        <v>4.51</v>
+        <v>2.7</v>
       </c>
       <c r="AJ24">
-        <v>1.34</v>
+        <v>1.68</v>
       </c>
       <c r="AK24">
-        <v>3</v>
+        <v>2.13</v>
       </c>
       <c r="AL24">
-        <v>1.64</v>
+        <v>2.11</v>
       </c>
       <c r="AM24">
-        <v>2.26</v>
+        <v>1.69</v>
       </c>
       <c r="AN24">
-        <v>2.01</v>
+        <v>2.62</v>
       </c>
       <c r="AO24">
-        <v>1.8</v>
+        <v>1.42</v>
       </c>
       <c r="AP24">
-        <v>2.58</v>
+        <v>3.6</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -3926,13 +3926,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="K25">
         <v>5</v>
       </c>
       <c r="L25">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -4048,22 +4048,22 @@
         <v>123</v>
       </c>
       <c r="G26">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H26">
         <v>1.95</v>
       </c>
       <c r="I26">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J26">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="K26">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L26">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="M26">
         <v>1.52</v>
@@ -4084,16 +4084,16 @@
         <v>2.38</v>
       </c>
       <c r="S26">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="T26">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U26">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="V26">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="W26">
         <v>1.2</v>
@@ -4120,43 +4120,43 @@
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2024-04-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -160,18 +160,18 @@
     <t>Italy Serie A</t>
   </si>
   <si>
+    <t>Sweden Allsvenskan</t>
+  </si>
+  <si>
+    <t>Portugal LigaPro</t>
+  </si>
+  <si>
+    <t>Turkey Süper Lig</t>
+  </si>
+  <si>
     <t>Poland Ekstraklasa</t>
   </si>
   <si>
-    <t>Sweden Allsvenskan</t>
-  </si>
-  <si>
-    <t>Turkey Süper Lig</t>
-  </si>
-  <si>
-    <t>Portugal LigaPro</t>
-  </si>
-  <si>
     <t>Denmark Superliga</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
+    <t>Spain La Liga</t>
+  </si>
+  <si>
     <t>England Championship</t>
   </si>
   <si>
-    <t>Spain La Liga</t>
-  </si>
-  <si>
     <t>Portugal Liga NOS</t>
   </si>
   <si>
@@ -256,27 +256,27 @@
     <t>Roma</t>
   </si>
   <si>
+    <t>Elfsborg</t>
+  </si>
+  <si>
+    <t>CD Nacional</t>
+  </si>
+  <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
     <t>Warta Poznań</t>
   </si>
   <si>
-    <t>Elfsborg</t>
-  </si>
-  <si>
-    <t>Sivasspor</t>
-  </si>
-  <si>
-    <t>CD Nacional</t>
+    <t>El Daklyeh FC</t>
+  </si>
+  <si>
+    <t>Al Ittihad</t>
   </si>
   <si>
     <t>Nordsjælland</t>
   </si>
   <si>
-    <t>El Daklyeh FC</t>
-  </si>
-  <si>
-    <t>Al Ittihad</t>
-  </si>
-  <si>
     <t>Örebro</t>
   </si>
   <si>
@@ -292,21 +292,21 @@
     <t>FC Cartagena</t>
   </si>
   <si>
+    <t>Derry City</t>
+  </si>
+  <si>
     <t>AC Milan</t>
   </si>
   <si>
-    <t>Derry City</t>
-  </si>
-  <si>
     <t>Shelbourne</t>
   </si>
   <si>
+    <t>Sevilla FC</t>
+  </si>
+  <si>
     <t>Middlesbrough</t>
   </si>
   <si>
-    <t>Sevilla FC</t>
-  </si>
-  <si>
     <t>Farense</t>
   </si>
   <si>
@@ -331,27 +331,27 @@
     <t>Bologna</t>
   </si>
   <si>
+    <t>Kalmar</t>
+  </si>
+  <si>
+    <t>Benfica II</t>
+  </si>
+  <si>
+    <t>Fenerbahçe</t>
+  </si>
+  <si>
     <t>Stal Mielec</t>
   </si>
   <si>
-    <t>Kalmar</t>
-  </si>
-  <si>
-    <t>Fenerbahçe</t>
-  </si>
-  <si>
-    <t>Benfica II</t>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
+    <t>Ismaily SC</t>
   </si>
   <si>
     <t>AGF</t>
   </si>
   <si>
-    <t>Coca-Cola</t>
-  </si>
-  <si>
-    <t>Ismaily SC</t>
-  </si>
-  <si>
     <t>Varberg</t>
   </si>
   <si>
@@ -367,19 +367,19 @@
     <t>Real Oviedo</t>
   </si>
   <si>
+    <t>St Patrick's Athl.</t>
+  </si>
+  <si>
     <t>Inter Milan</t>
   </si>
   <si>
-    <t>St Patrick's Athl.</t>
-  </si>
-  <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
+    <t>RCD Mallorca</t>
+  </si>
+  <si>
     <t>Leeds United</t>
-  </si>
-  <si>
-    <t>RCD Mallorca</t>
   </si>
   <si>
     <t>Benfica</t>
@@ -904,22 +904,22 @@
         <v>99</v>
       </c>
       <c r="G2">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H2">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J2">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="K2">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M2">
         <v>1.48</v>
@@ -940,10 +940,10 @@
         <v>2.8</v>
       </c>
       <c r="S2">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="T2">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="U2">
         <v>2</v>
@@ -1044,13 +1044,13 @@
         <v>3.49</v>
       </c>
       <c r="J3">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L3">
-        <v>2.99</v>
+        <v>2.9</v>
       </c>
       <c r="M3">
         <v>1.34</v>
@@ -1074,7 +1074,7 @@
         <v>1.75</v>
       </c>
       <c r="T3">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U3">
         <v>1.61</v>
@@ -1306,13 +1306,13 @@
         <v>3.5</v>
       </c>
       <c r="J5">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K5">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="L5">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="M5">
         <v>1.44</v>
@@ -1333,10 +1333,10 @@
         <v>3</v>
       </c>
       <c r="S5">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T5">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U5">
         <v>1.85</v>
@@ -1437,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K6">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="L6">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>3.75</v>
       </c>
       <c r="J7">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K7">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L7">
         <v>3.3</v>
@@ -1598,7 +1598,7 @@
         <v>2.3</v>
       </c>
       <c r="T7">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="U7">
         <v>2</v>
@@ -1681,7 +1681,7 @@
         <v>66</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
         <v>80</v>
@@ -1690,115 +1690,115 @@
         <v>105</v>
       </c>
       <c r="G8">
-        <v>2.85</v>
+        <v>2.1</v>
       </c>
       <c r="H8">
-        <v>1.85</v>
+        <v>2.38</v>
       </c>
       <c r="I8">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="J8">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="K8">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M8">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="N8">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="O8">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="P8">
-        <v>6.8</v>
+        <v>15</v>
       </c>
       <c r="Q8">
-        <v>1.53</v>
+        <v>1.23</v>
       </c>
       <c r="R8">
-        <v>2.37</v>
+        <v>4.2</v>
       </c>
       <c r="S8">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="T8">
-        <v>1.43</v>
+        <v>2.1</v>
       </c>
       <c r="U8">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V8">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="X8">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="Y8">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="Z8">
         <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>1.18</v>
+        <v>1.96</v>
       </c>
       <c r="AC8">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="AD8">
-        <v>2.24</v>
+        <v>3.31</v>
       </c>
       <c r="AE8">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="AF8">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AG8">
-        <v>2.77</v>
+        <v>3.69</v>
       </c>
       <c r="AH8">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="AI8">
-        <v>2.85</v>
+        <v>4</v>
       </c>
       <c r="AJ8">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="AK8">
-        <v>2.08</v>
+        <v>2.75</v>
       </c>
       <c r="AL8">
-        <v>1.92</v>
+        <v>1.74</v>
       </c>
       <c r="AM8">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="AN8">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="AO8">
-        <v>1.37</v>
+        <v>1.9</v>
       </c>
       <c r="AP8">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AQ8">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1812,7 +1812,7 @@
         <v>66</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>81</v>
@@ -1821,115 +1821,115 @@
         <v>106</v>
       </c>
       <c r="G9">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H9">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="I9">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="J9">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="K9">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="L9">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M9">
         <v>1.33</v>
       </c>
       <c r="N9">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Q9">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="R9">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="S9">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T9">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U9">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V9">
         <v>2</v>
       </c>
       <c r="W9">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="X9">
         <v>1.22</v>
       </c>
       <c r="Y9">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>2.36</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AB9">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="AC9">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AD9">
-        <v>3.31</v>
+        <v>3.24</v>
       </c>
       <c r="AE9">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="AF9">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9">
-        <v>3.69</v>
+        <v>2.64</v>
       </c>
       <c r="AH9">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AI9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ9">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AK9">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="AL9">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="AM9">
-        <v>2.02</v>
+        <v>3</v>
       </c>
       <c r="AN9">
-        <v>1.9</v>
+        <v>1.61</v>
       </c>
       <c r="AO9">
-        <v>1.9</v>
+        <v>2.17</v>
       </c>
       <c r="AP9">
-        <v>3</v>
+        <v>2.03</v>
       </c>
       <c r="AQ9">
-        <v>1.35</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1961,10 +1961,10 @@
         <v>1.83</v>
       </c>
       <c r="J10">
-        <v>7.25</v>
+        <v>6.25</v>
       </c>
       <c r="K10">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="L10">
         <v>1.4</v>
@@ -2074,7 +2074,7 @@
         <v>66</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
         <v>83</v>
@@ -2083,120 +2083,120 @@
         <v>108</v>
       </c>
       <c r="G11">
-        <v>2.3</v>
+        <v>2.85</v>
       </c>
       <c r="H11">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="I11">
-        <v>4.33</v>
+        <v>4.6</v>
       </c>
       <c r="J11">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="K11">
+        <v>2.85</v>
+      </c>
+      <c r="L11">
         <v>3.5</v>
       </c>
-      <c r="L11">
-        <v>3.9</v>
-      </c>
       <c r="M11">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="O11">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="P11">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="Q11">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="R11">
+        <v>2.4</v>
+      </c>
+      <c r="S11">
+        <v>2.6</v>
+      </c>
+      <c r="T11">
+        <v>1.44</v>
+      </c>
+      <c r="U11">
+        <v>2.25</v>
+      </c>
+      <c r="V11">
+        <v>1.58</v>
+      </c>
+      <c r="W11">
+        <v>1.28</v>
+      </c>
+      <c r="X11">
+        <v>1.38</v>
+      </c>
+      <c r="Y11">
+        <v>1.7</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>0.86</v>
+      </c>
+      <c r="AB11">
+        <v>1.18</v>
+      </c>
+      <c r="AC11">
+        <v>1.06</v>
+      </c>
+      <c r="AD11">
+        <v>2.24</v>
+      </c>
+      <c r="AE11">
+        <v>1.64</v>
+      </c>
+      <c r="AF11">
+        <v>8</v>
+      </c>
+      <c r="AG11">
+        <v>2.77</v>
+      </c>
+      <c r="AH11">
+        <v>1.34</v>
+      </c>
+      <c r="AI11">
+        <v>2.85</v>
+      </c>
+      <c r="AJ11">
+        <v>1.62</v>
+      </c>
+      <c r="AK11">
+        <v>2.08</v>
+      </c>
+      <c r="AL11">
+        <v>1.92</v>
+      </c>
+      <c r="AM11">
+        <v>1.8</v>
+      </c>
+      <c r="AN11">
+        <v>2.7</v>
+      </c>
+      <c r="AO11">
+        <v>1.37</v>
+      </c>
+      <c r="AP11">
         <v>3.75</v>
       </c>
-      <c r="S11">
-        <v>1.75</v>
-      </c>
-      <c r="T11">
-        <v>1.95</v>
-      </c>
-      <c r="U11">
-        <v>1.73</v>
-      </c>
-      <c r="V11">
-        <v>2</v>
-      </c>
-      <c r="W11">
-        <v>1.19</v>
-      </c>
-      <c r="X11">
-        <v>1.22</v>
-      </c>
-      <c r="Y11">
-        <v>1.78</v>
-      </c>
-      <c r="Z11">
-        <v>2.36</v>
-      </c>
-      <c r="AA11">
-        <v>1.29</v>
-      </c>
-      <c r="AB11">
-        <v>1.76</v>
-      </c>
-      <c r="AC11">
-        <v>1.48</v>
-      </c>
-      <c r="AD11">
-        <v>3.24</v>
-      </c>
-      <c r="AE11">
-        <v>1.6</v>
-      </c>
-      <c r="AF11">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG11">
-        <v>2.64</v>
-      </c>
-      <c r="AH11">
-        <v>1.13</v>
-      </c>
-      <c r="AI11">
-        <v>5</v>
-      </c>
-      <c r="AJ11">
-        <v>1.25</v>
-      </c>
-      <c r="AK11">
-        <v>3.6</v>
-      </c>
-      <c r="AL11">
-        <v>1.34</v>
-      </c>
-      <c r="AM11">
-        <v>3</v>
-      </c>
-      <c r="AN11">
-        <v>1.61</v>
-      </c>
-      <c r="AO11">
-        <v>2.17</v>
-      </c>
-      <c r="AP11">
-        <v>2.03</v>
-      </c>
       <c r="AQ11">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2">
         <v>45404</v>
@@ -2205,7 +2205,7 @@
         <v>66</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>84</v>
@@ -2214,115 +2214,115 @@
         <v>109</v>
       </c>
       <c r="G12">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="I12">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="J12">
-        <v>1.65</v>
+        <v>4.5</v>
       </c>
       <c r="K12">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="M12">
+        <v>1.6</v>
+      </c>
+      <c r="N12">
+        <v>2.2</v>
+      </c>
+      <c r="O12">
+        <v>1.11</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <v>1.55</v>
+      </c>
+      <c r="R12">
+        <v>2.3</v>
+      </c>
+      <c r="S12">
+        <v>2.63</v>
+      </c>
+      <c r="T12">
+        <v>1.44</v>
+      </c>
+      <c r="U12">
+        <v>2.38</v>
+      </c>
+      <c r="V12">
+        <v>1.53</v>
+      </c>
+      <c r="W12">
+        <v>1.83</v>
+      </c>
+      <c r="X12">
+        <v>1.3</v>
+      </c>
+      <c r="Y12">
+        <v>1.2</v>
+      </c>
+      <c r="Z12">
+        <v>0.88</v>
+      </c>
+      <c r="AA12">
+        <v>1.83</v>
+      </c>
+      <c r="AB12">
+        <v>0.89</v>
+      </c>
+      <c r="AC12">
+        <v>1.44</v>
+      </c>
+      <c r="AD12">
+        <v>2.33</v>
+      </c>
+      <c r="AE12">
+        <v>2.91</v>
+      </c>
+      <c r="AF12">
+        <v>8.6</v>
+      </c>
+      <c r="AG12">
+        <v>1.52</v>
+      </c>
+      <c r="AH12">
+        <v>1.34</v>
+      </c>
+      <c r="AI12">
+        <v>2.88</v>
+      </c>
+      <c r="AJ12">
+        <v>1.63</v>
+      </c>
+      <c r="AK12">
+        <v>2.09</v>
+      </c>
+      <c r="AL12">
+        <v>2.07</v>
+      </c>
+      <c r="AM12">
+        <v>1.64</v>
+      </c>
+      <c r="AN12">
+        <v>2.78</v>
+      </c>
+      <c r="AO12">
         <v>1.36</v>
       </c>
-      <c r="N12">
-        <v>3</v>
-      </c>
-      <c r="O12">
-        <v>1.01</v>
-      </c>
-      <c r="P12">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="Q12">
-        <v>1.26</v>
-      </c>
-      <c r="R12">
-        <v>3.34</v>
-      </c>
-      <c r="S12">
-        <v>1.85</v>
-      </c>
-      <c r="T12">
-        <v>1.85</v>
-      </c>
-      <c r="U12">
-        <v>1.91</v>
-      </c>
-      <c r="V12">
-        <v>1.91</v>
-      </c>
-      <c r="W12">
-        <v>1.17</v>
-      </c>
-      <c r="X12">
-        <v>1.26</v>
-      </c>
-      <c r="Y12">
-        <v>2.22</v>
-      </c>
-      <c r="Z12">
-        <v>2.08</v>
-      </c>
-      <c r="AA12">
-        <v>1.58</v>
-      </c>
-      <c r="AB12">
-        <v>1.75</v>
-      </c>
-      <c r="AC12">
-        <v>1.18</v>
-      </c>
-      <c r="AD12">
-        <v>2.93</v>
-      </c>
-      <c r="AE12">
-        <v>1.45</v>
-      </c>
-      <c r="AF12">
-        <v>9</v>
-      </c>
-      <c r="AG12">
-        <v>3.32</v>
-      </c>
-      <c r="AH12">
-        <v>1.22</v>
-      </c>
-      <c r="AI12">
-        <v>3.75</v>
-      </c>
-      <c r="AJ12">
-        <v>1.78</v>
-      </c>
-      <c r="AK12">
-        <v>2.02</v>
-      </c>
-      <c r="AL12">
-        <v>1.78</v>
-      </c>
-      <c r="AM12">
-        <v>2.02</v>
-      </c>
-      <c r="AN12">
-        <v>2.18</v>
-      </c>
-      <c r="AO12">
-        <v>1.6</v>
-      </c>
       <c r="AP12">
-        <v>2.88</v>
+        <v>3.68</v>
       </c>
       <c r="AQ12">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2345,120 +2345,120 @@
         <v>110</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="H13">
+        <v>1.95</v>
+      </c>
+      <c r="I13">
+        <v>3.4</v>
+      </c>
+      <c r="J13">
+        <v>2.7</v>
+      </c>
+      <c r="K13">
+        <v>2.8</v>
+      </c>
+      <c r="L13">
+        <v>2.8</v>
+      </c>
+      <c r="M13">
+        <v>1.5</v>
+      </c>
+      <c r="N13">
+        <v>2.4</v>
+      </c>
+      <c r="O13">
+        <v>1.08</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>1.42</v>
+      </c>
+      <c r="R13">
+        <v>2.75</v>
+      </c>
+      <c r="S13">
+        <v>2.3</v>
+      </c>
+      <c r="T13">
+        <v>1.6</v>
+      </c>
+      <c r="U13">
         <v>1.91</v>
       </c>
-      <c r="I13">
-        <v>2.63</v>
-      </c>
-      <c r="J13">
-        <v>4.33</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1.91</v>
-      </c>
-      <c r="M13">
-        <v>1.6</v>
-      </c>
-      <c r="N13">
-        <v>2.2</v>
-      </c>
-      <c r="O13">
-        <v>1.11</v>
-      </c>
-      <c r="P13">
-        <v>6</v>
-      </c>
-      <c r="Q13">
-        <v>1.5</v>
-      </c>
-      <c r="R13">
-        <v>2.45</v>
-      </c>
-      <c r="S13">
-        <v>2.63</v>
-      </c>
-      <c r="T13">
-        <v>1.44</v>
-      </c>
-      <c r="U13">
-        <v>2.38</v>
-      </c>
       <c r="V13">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="W13">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="X13">
         <v>1.3</v>
       </c>
       <c r="Y13">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Z13">
-        <v>0.88</v>
+        <v>1.75</v>
       </c>
       <c r="AA13">
-        <v>1.83</v>
+        <v>0.5</v>
       </c>
       <c r="AB13">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AC13">
+        <v>1.55</v>
+      </c>
+      <c r="AD13">
+        <v>2.95</v>
+      </c>
+      <c r="AE13">
+        <v>1.86</v>
+      </c>
+      <c r="AF13">
+        <v>8.4</v>
+      </c>
+      <c r="AG13">
+        <v>2.17</v>
+      </c>
+      <c r="AH13">
+        <v>1.28</v>
+      </c>
+      <c r="AI13">
+        <v>3.2</v>
+      </c>
+      <c r="AJ13">
+        <v>1.53</v>
+      </c>
+      <c r="AK13">
+        <v>2.28</v>
+      </c>
+      <c r="AL13">
+        <v>1.91</v>
+      </c>
+      <c r="AM13">
+        <v>1.76</v>
+      </c>
+      <c r="AN13">
+        <v>2.51</v>
+      </c>
+      <c r="AO13">
         <v>1.44</v>
       </c>
-      <c r="AD13">
-        <v>2.33</v>
-      </c>
-      <c r="AE13">
-        <v>2.88</v>
-      </c>
-      <c r="AF13">
-        <v>8.6</v>
-      </c>
-      <c r="AG13">
-        <v>1.53</v>
-      </c>
-      <c r="AH13">
-        <v>1.34</v>
-      </c>
-      <c r="AI13">
-        <v>2.88</v>
-      </c>
-      <c r="AJ13">
-        <v>1.63</v>
-      </c>
-      <c r="AK13">
-        <v>2.09</v>
-      </c>
-      <c r="AL13">
-        <v>2.07</v>
-      </c>
-      <c r="AM13">
-        <v>1.64</v>
-      </c>
-      <c r="AN13">
-        <v>2.78</v>
-      </c>
-      <c r="AO13">
-        <v>1.36</v>
-      </c>
       <c r="AP13">
-        <v>3.68</v>
+        <v>3.42</v>
       </c>
       <c r="AQ13">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2">
         <v>45404</v>
@@ -2467,7 +2467,7 @@
         <v>66</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
         <v>86</v>
@@ -2476,115 +2476,115 @@
         <v>111</v>
       </c>
       <c r="G14">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="H14">
+        <v>2.25</v>
+      </c>
+      <c r="I14">
+        <v>5.5</v>
+      </c>
+      <c r="J14">
+        <v>1.75</v>
+      </c>
+      <c r="K14">
+        <v>3.75</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>1.36</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>1.01</v>
+      </c>
+      <c r="P14">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Q14">
+        <v>1.26</v>
+      </c>
+      <c r="R14">
+        <v>3.34</v>
+      </c>
+      <c r="S14">
+        <v>1.7</v>
+      </c>
+      <c r="T14">
         <v>2</v>
-      </c>
-      <c r="I14">
-        <v>3.5</v>
-      </c>
-      <c r="J14">
-        <v>2.5</v>
-      </c>
-      <c r="K14">
-        <v>2.8</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-      <c r="M14">
-        <v>1.5</v>
-      </c>
-      <c r="N14">
-        <v>2.4</v>
-      </c>
-      <c r="O14">
-        <v>1.08</v>
-      </c>
-      <c r="P14">
-        <v>7</v>
-      </c>
-      <c r="Q14">
-        <v>1.42</v>
-      </c>
-      <c r="R14">
-        <v>2.75</v>
-      </c>
-      <c r="S14">
-        <v>2.3</v>
-      </c>
-      <c r="T14">
-        <v>1.6</v>
       </c>
       <c r="U14">
         <v>1.91</v>
       </c>
       <c r="V14">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W14">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="X14">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="Y14">
-        <v>1.5</v>
+        <v>2.22</v>
       </c>
       <c r="Z14">
+        <v>2.08</v>
+      </c>
+      <c r="AA14">
+        <v>1.58</v>
+      </c>
+      <c r="AB14">
         <v>1.75</v>
       </c>
-      <c r="AA14">
-        <v>0.5</v>
-      </c>
-      <c r="AB14">
-        <v>1.4</v>
-      </c>
       <c r="AC14">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="AD14">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="AE14">
-        <v>1.86</v>
+        <v>1.45</v>
       </c>
       <c r="AF14">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AG14">
-        <v>2.17</v>
+        <v>3.32</v>
       </c>
       <c r="AH14">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AI14">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="AJ14">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="AK14">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="AL14">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AM14">
-        <v>1.76</v>
+        <v>2.02</v>
       </c>
       <c r="AN14">
-        <v>2.51</v>
+        <v>2.18</v>
       </c>
       <c r="AO14">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AP14">
-        <v>3.42</v>
+        <v>2.88</v>
       </c>
       <c r="AQ14">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2819,10 +2819,10 @@
         <v>2.55</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ16">
         <v>1.35</v>
@@ -2950,10 +2950,10 @@
         <v>2.65</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ17">
         <v>1.33</v>
@@ -3003,10 +3003,10 @@
         <v>3.1</v>
       </c>
       <c r="H18">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="I18">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J18">
         <v>2.5</v>
@@ -3015,7 +3015,7 @@
         <v>3.2</v>
       </c>
       <c r="L18">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="M18">
         <v>1.38</v>
@@ -3024,16 +3024,16 @@
         <v>2.8</v>
       </c>
       <c r="O18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P18">
-        <v>8.65</v>
+        <v>11.5</v>
       </c>
       <c r="Q18">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="R18">
-        <v>3.68</v>
+        <v>3.5</v>
       </c>
       <c r="S18">
         <v>1.75</v>
@@ -3042,19 +3042,19 @@
         <v>1.95</v>
       </c>
       <c r="U18">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V18">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W18">
-        <v>1.29</v>
+        <v>1.06</v>
       </c>
       <c r="X18">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="Y18">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="Z18">
         <v>2.6</v>
@@ -3072,43 +3072,43 @@
         <v>3.12</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3140,10 +3140,10 @@
         <v>3.25</v>
       </c>
       <c r="J19">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L19">
         <v>2.35</v>
@@ -3164,13 +3164,13 @@
         <v>1.5</v>
       </c>
       <c r="R19">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="S19">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="T19">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="U19">
         <v>2.1</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2">
         <v>45404</v>
@@ -3253,7 +3253,7 @@
         <v>70</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
         <v>92</v>
@@ -3262,120 +3262,120 @@
         <v>117</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H20">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I20">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="J20">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="K20">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L20">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="M20">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="N20">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="O20">
         <v>1.06</v>
       </c>
       <c r="P20">
-        <v>15.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q20">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="R20">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="S20">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T20">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="U20">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="V20">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="W20">
-        <v>1.77</v>
+        <v>1.18</v>
       </c>
       <c r="X20">
         <v>1.22</v>
       </c>
       <c r="Y20">
-        <v>1.28</v>
+        <v>2</v>
       </c>
       <c r="Z20">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AA20">
-        <v>2.73</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="AC20">
-        <v>1.47</v>
+        <v>1.05</v>
       </c>
       <c r="AD20">
-        <v>2.99</v>
+        <v>2.45</v>
       </c>
       <c r="AE20">
-        <v>2.23</v>
+        <v>1.3</v>
       </c>
       <c r="AF20">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG20">
-        <v>1.9</v>
+        <v>4.86</v>
       </c>
       <c r="AH20">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="AI20">
-        <v>3</v>
+        <v>3.48</v>
       </c>
       <c r="AJ20">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="AK20">
-        <v>2.35</v>
+        <v>2.52</v>
       </c>
       <c r="AL20">
-        <v>1.93</v>
+        <v>2.38</v>
       </c>
       <c r="AM20">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="AN20">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="AO20">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AP20">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="AQ20">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2">
         <v>45404</v>
@@ -3384,7 +3384,7 @@
         <v>70</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
         <v>93</v>
@@ -3393,115 +3393,115 @@
         <v>118</v>
       </c>
       <c r="G21">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="I21">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="J21">
-        <v>1.67</v>
+        <v>3.2</v>
       </c>
       <c r="K21">
         <v>3.4</v>
       </c>
       <c r="L21">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="M21">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="N21">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="O21">
         <v>1.06</v>
       </c>
       <c r="P21">
-        <v>8.5</v>
+        <v>15.5</v>
       </c>
       <c r="Q21">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="R21">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="S21">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="V21">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="W21">
-        <v>1.18</v>
+        <v>1.77</v>
       </c>
       <c r="X21">
         <v>1.22</v>
       </c>
       <c r="Y21">
-        <v>2</v>
+        <v>1.28</v>
       </c>
       <c r="Z21">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>2.73</v>
       </c>
       <c r="AB21">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="AC21">
-        <v>1.05</v>
+        <v>1.47</v>
       </c>
       <c r="AD21">
+        <v>2.99</v>
+      </c>
+      <c r="AE21">
+        <v>2.23</v>
+      </c>
+      <c r="AF21">
+        <v>8.9</v>
+      </c>
+      <c r="AG21">
+        <v>1.9</v>
+      </c>
+      <c r="AH21">
+        <v>1.33</v>
+      </c>
+      <c r="AI21">
+        <v>3</v>
+      </c>
+      <c r="AJ21">
+        <v>1.57</v>
+      </c>
+      <c r="AK21">
+        <v>2.35</v>
+      </c>
+      <c r="AL21">
+        <v>1.93</v>
+      </c>
+      <c r="AM21">
+        <v>1.85</v>
+      </c>
+      <c r="AN21">
         <v>2.45</v>
       </c>
-      <c r="AE21">
-        <v>1.34</v>
-      </c>
-      <c r="AF21">
-        <v>10.2</v>
-      </c>
-      <c r="AG21">
-        <v>4.14</v>
-      </c>
-      <c r="AH21">
-        <v>1.24</v>
-      </c>
-      <c r="AI21">
-        <v>3.48</v>
-      </c>
-      <c r="AJ21">
-        <v>1.46</v>
-      </c>
-      <c r="AK21">
-        <v>2.52</v>
-      </c>
-      <c r="AL21">
-        <v>2.38</v>
-      </c>
-      <c r="AM21">
-        <v>1.92</v>
-      </c>
-      <c r="AN21">
-        <v>2.32</v>
-      </c>
       <c r="AO21">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="AP21">
-        <v>3.04</v>
+        <v>3.2</v>
       </c>
       <c r="AQ21">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -3530,16 +3530,16 @@
         <v>1.95</v>
       </c>
       <c r="I22">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J22">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K22">
         <v>3.1</v>
       </c>
       <c r="L22">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M22">
         <v>1.5</v>
@@ -3566,10 +3566,10 @@
         <v>1.53</v>
       </c>
       <c r="U22">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V22">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W22">
         <v>1.44</v>
@@ -3596,13 +3596,13 @@
         <v>2.56</v>
       </c>
       <c r="AE22">
-        <v>2.41</v>
+        <v>2.81</v>
       </c>
       <c r="AF22">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
       <c r="AG22">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="AH22">
         <v>1.23</v>
@@ -3646,7 +3646,7 @@
         <v>71</v>
       </c>
       <c r="D23">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
         <v>95</v>
@@ -3655,115 +3655,115 @@
         <v>120</v>
       </c>
       <c r="G23">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="H23">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>1.83</v>
+      </c>
+      <c r="K23">
+        <v>3.25</v>
+      </c>
+      <c r="L23">
+        <v>4.75</v>
+      </c>
+      <c r="M23">
+        <v>1.57</v>
+      </c>
+      <c r="N23">
+        <v>2.25</v>
+      </c>
+      <c r="O23">
+        <v>1.13</v>
+      </c>
+      <c r="P23">
+        <v>7.6</v>
+      </c>
+      <c r="Q23">
+        <v>1.55</v>
+      </c>
+      <c r="R23">
         <v>2.4</v>
       </c>
-      <c r="J23">
-        <v>3.8</v>
-      </c>
-      <c r="K23">
-        <v>3.9</v>
-      </c>
-      <c r="L23">
-        <v>1.85</v>
-      </c>
-      <c r="M23">
-        <v>1.33</v>
-      </c>
-      <c r="N23">
-        <v>3.25</v>
-      </c>
-      <c r="O23">
-        <v>1.04</v>
-      </c>
-      <c r="P23">
-        <v>13</v>
-      </c>
-      <c r="Q23">
-        <v>1.26</v>
-      </c>
-      <c r="R23">
-        <v>4</v>
-      </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="T23">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="U23">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="V23">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="W23">
-        <v>2.01</v>
+        <v>1.23</v>
       </c>
       <c r="X23">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="Y23">
-        <v>1.23</v>
+        <v>1.8</v>
       </c>
       <c r="Z23">
+        <v>1.13</v>
+      </c>
+      <c r="AA23">
+        <v>0.6</v>
+      </c>
+      <c r="AB23">
+        <v>1.7</v>
+      </c>
+      <c r="AC23">
+        <v>1.16</v>
+      </c>
+      <c r="AD23">
+        <v>2.86</v>
+      </c>
+      <c r="AE23">
         <v>1.48</v>
       </c>
-      <c r="AA23">
-        <v>1.62</v>
-      </c>
-      <c r="AB23">
-        <v>1.53</v>
-      </c>
-      <c r="AC23">
-        <v>1.41</v>
-      </c>
-      <c r="AD23">
-        <v>2.94</v>
-      </c>
-      <c r="AE23">
-        <v>2.56</v>
-      </c>
       <c r="AF23">
-        <v>7.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG23">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="AH23">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="AI23">
-        <v>4.51</v>
+        <v>2.7</v>
       </c>
       <c r="AJ23">
-        <v>1.34</v>
+        <v>1.68</v>
       </c>
       <c r="AK23">
-        <v>3</v>
+        <v>2.13</v>
       </c>
       <c r="AL23">
-        <v>1.64</v>
+        <v>2.11</v>
       </c>
       <c r="AM23">
-        <v>2.26</v>
+        <v>1.69</v>
       </c>
       <c r="AN23">
-        <v>2.01</v>
+        <v>2.62</v>
       </c>
       <c r="AO23">
-        <v>1.8</v>
+        <v>1.42</v>
       </c>
       <c r="AP23">
-        <v>2.58</v>
+        <v>3.6</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -3777,7 +3777,7 @@
         <v>71</v>
       </c>
       <c r="D24">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
         <v>96</v>
@@ -3786,115 +3786,115 @@
         <v>121</v>
       </c>
       <c r="G24">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="H24">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="J24">
+        <v>3.9</v>
+      </c>
+      <c r="K24">
+        <v>3.65</v>
+      </c>
+      <c r="L24">
+        <v>1.8</v>
+      </c>
+      <c r="M24">
+        <v>1.33</v>
+      </c>
+      <c r="N24">
+        <v>3.25</v>
+      </c>
+      <c r="O24">
+        <v>1.04</v>
+      </c>
+      <c r="P24">
+        <v>13</v>
+      </c>
+      <c r="Q24">
+        <v>1.26</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
         <v>1.9</v>
       </c>
-      <c r="K24">
-        <v>3.3</v>
-      </c>
-      <c r="L24">
-        <v>4.4</v>
-      </c>
-      <c r="M24">
-        <v>1.57</v>
-      </c>
-      <c r="N24">
-        <v>2.25</v>
-      </c>
-      <c r="O24">
-        <v>1.13</v>
-      </c>
-      <c r="P24">
-        <v>7.6</v>
-      </c>
-      <c r="Q24">
+      <c r="T24">
+        <v>1.8</v>
+      </c>
+      <c r="U24">
+        <v>1.67</v>
+      </c>
+      <c r="V24">
+        <v>2.1</v>
+      </c>
+      <c r="W24">
+        <v>2.01</v>
+      </c>
+      <c r="X24">
+        <v>1.26</v>
+      </c>
+      <c r="Y24">
+        <v>1.23</v>
+      </c>
+      <c r="Z24">
+        <v>1.48</v>
+      </c>
+      <c r="AA24">
+        <v>1.62</v>
+      </c>
+      <c r="AB24">
         <v>1.53</v>
       </c>
-      <c r="R24">
-        <v>2.52</v>
-      </c>
-      <c r="S24">
-        <v>2.37</v>
-      </c>
-      <c r="T24">
-        <v>1.53</v>
-      </c>
-      <c r="U24">
-        <v>2.2</v>
-      </c>
-      <c r="V24">
-        <v>1.62</v>
-      </c>
-      <c r="W24">
-        <v>1.23</v>
-      </c>
-      <c r="X24">
-        <v>1.35</v>
-      </c>
-      <c r="Y24">
+      <c r="AC24">
+        <v>1.41</v>
+      </c>
+      <c r="AD24">
+        <v>2.94</v>
+      </c>
+      <c r="AE24">
+        <v>2.56</v>
+      </c>
+      <c r="AF24">
+        <v>7.5</v>
+      </c>
+      <c r="AG24">
         <v>1.8</v>
       </c>
-      <c r="Z24">
-        <v>1.13</v>
-      </c>
-      <c r="AA24">
-        <v>0.6</v>
-      </c>
-      <c r="AB24">
-        <v>1.7</v>
-      </c>
-      <c r="AC24">
+      <c r="AH24">
         <v>1.16</v>
       </c>
-      <c r="AD24">
-        <v>2.86</v>
-      </c>
-      <c r="AE24">
-        <v>1.48</v>
-      </c>
-      <c r="AF24">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG24">
-        <v>3.3</v>
-      </c>
-      <c r="AH24">
-        <v>1.4</v>
-      </c>
       <c r="AI24">
-        <v>2.7</v>
+        <v>4.51</v>
       </c>
       <c r="AJ24">
-        <v>1.68</v>
+        <v>1.34</v>
       </c>
       <c r="AK24">
-        <v>2.13</v>
+        <v>3</v>
       </c>
       <c r="AL24">
-        <v>2.11</v>
+        <v>1.64</v>
       </c>
       <c r="AM24">
-        <v>1.69</v>
+        <v>2.26</v>
       </c>
       <c r="AN24">
-        <v>2.62</v>
+        <v>2.01</v>
       </c>
       <c r="AO24">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="AP24">
-        <v>3.6</v>
+        <v>2.58</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -3926,13 +3926,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K25">
         <v>5</v>
       </c>
       <c r="L25">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -3953,10 +3953,10 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="T25">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -4048,22 +4048,22 @@
         <v>123</v>
       </c>
       <c r="G26">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H26">
         <v>1.95</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J26">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M26">
         <v>1.52</v>
@@ -4078,16 +4078,16 @@
         <v>6.5</v>
       </c>
       <c r="Q26">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R26">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S26">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T26">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U26">
         <v>2.2</v>
@@ -4120,13 +4120,13 @@
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AF26">
-        <v>8.9</v>
+        <v>8.1</v>
       </c>
       <c r="AG26">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="AH26">
         <v>1.25</v>
